--- a/relatorios/repasses_liberados/dentistas/03946640435/2023-08-25_relatorio_repasses_03946640435.xlsx
+++ b/relatorios/repasses_liberados/dentistas/03946640435/2023-08-25_relatorio_repasses_03946640435.xlsx
@@ -538,10 +538,10 @@
         <v>0.815217</v>
       </c>
       <c r="M2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N2">
-        <v>366.84765</v>
+        <v>489.1302</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -582,10 +582,10 @@
         <v>0.403727</v>
       </c>
       <c r="M3">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N3">
-        <v>1049.6902</v>
+        <v>787.26765</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -626,10 +626,10 @@
         <v>0.403727</v>
       </c>
       <c r="M4">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N4">
-        <v>1049.6902</v>
+        <v>787.26765</v>
       </c>
     </row>
   </sheetData>
